--- a/7-seaborn-plotting-basics/seaborn-plotting-basics-start.xlsx
+++ b/7-seaborn-plotting-basics/seaborn-plotting-basics-start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/personal/george_stringfestanalytics_com/Documents/Stringfest assets/OReilly/oreilly-shortcuts/python-in-excel/7-seaborn-plotting-basics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\oreilly-shortcuts-python-in-excel\7-seaborn-plotting-basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{7E1BA378-9AC3-4318-A814-BB84E09EE83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9970206F-2065-41BC-95FB-F8BCDDD85BA2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA89D7A8-D1AE-4F9C-AB34-E806DEFBC1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{5D8B9836-D97A-46FF-8C05-2FA4C80BFB00}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{5D8B9836-D97A-46FF-8C05-2FA4C80BFB00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,63 +35,6 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="3">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="3">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
-    </bk>
-    <bk>
-      <rc t="2" v="2"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
@@ -109,26 +52,6 @@
 </code>
     </initialization>
   </environmentDefinition>
-  <pythonScripts>
-    <pythonScript>
-      <code>nyc_df = xl(%P2%, headers=True)
-sns.barplot(x='borough', y='population', data=nyc_df, color='blue')
-plt.title('NYC population by borough')</code>
-    </pythonScript>
-    <pythonScript>
-      <code>sns.scatterplot(x='land_area', y='population', data=nyc_df)</code>
-    </pythonScript>
-    <pythonScript>
-      <code>scatter_plot = sns.scatterplot(data=nyc_df, x='land_area', y='population')
-# Add labels to each point
-for line in range(0, nyc_df.shape[0]):
-    scatter_plot.text(nyc_df.land_area[line]+2, nyc_df.population[line],
-    nyc_df.borough[line])
-plt.xlabel('Land area (square miles)')
-plt.ylabel('Population')
-plt.title('Land area vs population of NYC boroughs')</code>
-    </pythonScript>
-  </pythonScripts>
 </python>
 </file>
 
@@ -214,236 +137,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1011767</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4233</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>30992</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD3F764-8419-B882-73DE-B7CEF594E038}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!E2"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4986867" y="304800"/>
-          <a:ext cx="3462866" cy="2736092"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>714258</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>83320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1533F09-08AD-510B-FAEF-4B096A28A37F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!E12"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5092700" y="3678767"/>
-          <a:ext cx="5184658" cy="4096520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>613833</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>576252</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>141740</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0C40DB-D7A7-30F7-AAE2-8860E30CBBBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!E26"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5706533" y="8373533"/>
-          <a:ext cx="5550419" cy="4142240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
-  <rv s="0">
-    <v>0</v>
-    <v>9</v>
-    <v>Image generated by Python</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-    <v>9</v>
-    <v>Image generated by Python</v>
-  </rv>
-  <rv s="0">
-    <v>2</v>
-    <v>9</v>
-    <v>Image generated by Python</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-    <k n="Text" t="s"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-  <rel r:id="rId3"/>
-</richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,21 +468,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EADC078-C858-46D8-97C7-0CFB8EBD8686}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.35" x14ac:dyDescent="0.9"/>
+  <sheetFormatPr defaultRowHeight="26.4" x14ac:dyDescent="1"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="10.9375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5859375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:3" x14ac:dyDescent="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -800,7 +490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:3" x14ac:dyDescent="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -810,12 +500,8 @@
       <c r="C2">
         <v>69.5</v>
       </c>
-      <c r="E2" t="e" cm="1" vm="1">
-        <f t="array" ref="E2">_xlfn._xlws.PY(0,0,nyc_pop[#All])</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.9">
+    <row r="3" spans="1:3" x14ac:dyDescent="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -826,7 +512,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:3" x14ac:dyDescent="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -837,7 +523,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:3" x14ac:dyDescent="1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -848,7 +534,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:3" x14ac:dyDescent="1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -857,25 +543,12 @@
       </c>
       <c r="C6">
         <v>58.37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.9">
-      <c r="E12" t="e" cm="1" vm="2">
-        <f t="array" ref="E12">_xlfn._xlws.PY(1,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.9">
-      <c r="E26" t="e" cm="1" vm="3">
-        <f t="array" ref="E26">_xlfn._xlws.PY(2,0)</f>
-        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>